--- a/data/trans_bre/P1429-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P1429-Habitat-trans_bre.xlsx
@@ -649,7 +649,7 @@
         <v>13.1329607583411</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>4.372235661745462</v>
+        <v>4.372235661745463</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6685321511149694</v>
+        <v>0.6144389039517373</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.213222786377993</v>
+        <v>1.216730442085332</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.282010819963509</v>
+        <v>2.333501590995401</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.133374902212756</v>
+        <v>3.174009274097819</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1824669554723803</v>
+        <v>0.1383757598710101</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>1.243682636467718</v>
+        <v>0.9731931316379372</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>2.404331423644099</v>
+        <v>1.824443946945235</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>1.961883924276619</v>
+        <v>1.891673251074509</v>
       </c>
     </row>
     <row r="6">
@@ -692,24 +692,24 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.189377658623592</v>
+        <v>4.049519409599941</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.880353352169605</v>
+        <v>3.964136662923506</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.451383687437265</v>
+        <v>5.553231804417305</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.096947832146382</v>
+        <v>6.212945093438346</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>5.315101317920274</v>
+        <v>4.615434904779828</v>
       </c>
       <c r="H6" s="6" t="inlineStr"/>
       <c r="I6" s="6" t="inlineStr"/>
       <c r="J6" s="6" t="n">
-        <v>10.77052507056519</v>
+        <v>10.34421593727135</v>
       </c>
     </row>
     <row r="7">
@@ -733,7 +733,7 @@
         <v>3.0356788257238</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3.420871048039558</v>
+        <v>3.420871048039559</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>1.901225365972792</v>
@@ -747,7 +747,7 @@
         <v>8.072334393967514</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>4.171669336953597</v>
+        <v>4.171669336953599</v>
       </c>
     </row>
     <row r="8">
@@ -758,26 +758,26 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.103194591424969</v>
+        <v>1.127131688573493</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.526788984893229</v>
+        <v>2.494243703412427</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.926606997330413</v>
+        <v>1.847464976740023</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.391215396765079</v>
+        <v>2.404078064853453</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.5552808889626495</v>
+        <v>0.5262732746718134</v>
       </c>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="n">
-        <v>2.088015526605164</v>
+        <v>1.69983055873933</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>1.763837684347444</v>
+        <v>1.760479629856804</v>
       </c>
     </row>
     <row r="9">
@@ -788,26 +788,26 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.980151496369654</v>
+        <v>4.049991030647904</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.893092954676881</v>
+        <v>4.880789964970834</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.642580697806327</v>
+        <v>4.461004467866812</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.532420866031325</v>
+        <v>4.550971163359466</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>4.898642352536482</v>
+        <v>4.648472502539742</v>
       </c>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="n">
-        <v>26.29373530175548</v>
+        <v>30.91338046809179</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>9.097067337875721</v>
+        <v>9.909619266678201</v>
       </c>
     </row>
     <row r="10">
@@ -831,7 +831,7 @@
         <v>3.635296853115617</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3.886611452080051</v>
+        <v>3.886611452080054</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>13.52430751576903</v>
@@ -843,7 +843,7 @@
         <v>12.33545174557127</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>6.462594272651116</v>
+        <v>6.46259427265112</v>
       </c>
     </row>
     <row r="11">
@@ -854,26 +854,26 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.566809100434756</v>
+        <v>3.660839771353439</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.631113564632801</v>
+        <v>1.631909722098962</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.203106385183221</v>
+        <v>2.19804565693998</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.559679752014553</v>
+        <v>2.666015811643214</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>3.86396317184134</v>
+        <v>3.372304242261499</v>
       </c>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="n">
-        <v>1.44419045078705</v>
+        <v>2.003595731793005</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>1.983806609446425</v>
+        <v>2.116969157246218</v>
       </c>
     </row>
     <row r="12">
@@ -884,24 +884,24 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.291195734935675</v>
+        <v>7.297110765617683</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.68766391023318</v>
+        <v>4.632704664337624</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.306528088261656</v>
+        <v>5.459581153179509</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.117618575968777</v>
+        <v>5.255260848763737</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>53.82638907670749</v>
+        <v>51.38038355561703</v>
       </c>
       <c r="H12" s="6" t="inlineStr"/>
       <c r="I12" s="6" t="inlineStr"/>
       <c r="J12" s="6" t="n">
-        <v>20.74170032440099</v>
+        <v>19.36045524640519</v>
       </c>
     </row>
     <row r="13">
@@ -925,7 +925,7 @@
         <v>2.368501676613575</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4.029943003923659</v>
+        <v>4.02994300392366</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>3.453993162778585</v>
@@ -937,7 +937,7 @@
         <v>5.863331052472637</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>4.399355401931961</v>
+        <v>4.399355401931962</v>
       </c>
     </row>
     <row r="14">
@@ -948,28 +948,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.117592016850614</v>
+        <v>2.018387744923032</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>4.180830449557639</v>
+        <v>4.067725386984001</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.371151886534604</v>
+        <v>1.305016365539209</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.366919289070196</v>
+        <v>2.626688803942447</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1.260918744494288</v>
+        <v>1.431185909809866</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>6.173228019855536</v>
+        <v>5.460633627995163</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1.371109967571077</v>
+        <v>1.18795761151696</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.8595009738452373</v>
+        <v>0.8830764283115506</v>
       </c>
     </row>
     <row r="15">
@@ -980,26 +980,26 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.891332187730058</v>
+        <v>4.840245437575788</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.186771567118215</v>
+        <v>7.107949305449305</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.685009968446827</v>
+        <v>3.680835489870245</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5.166314821304409</v>
+        <v>5.258738590711621</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>8.808856336952834</v>
+        <v>8.877087955655039</v>
       </c>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>27.46061213228354</v>
+        <v>23.33756675327999</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>11.75070463260459</v>
+        <v>12.11124987972438</v>
       </c>
     </row>
     <row r="16">
@@ -1023,7 +1023,7 @@
         <v>3.099701764388445</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3.915209471413301</v>
+        <v>3.915209471413299</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>3.164749854761275</v>
@@ -1035,7 +1035,7 @@
         <v>8.937746284874166</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>4.677595178023969</v>
+        <v>4.677595178023967</v>
       </c>
     </row>
     <row r="17">
@@ -1046,28 +1046,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.485326779581507</v>
+        <v>2.547602437218084</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.179606813704171</v>
+        <v>3.216416960037918</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.469512623597936</v>
+        <v>2.538001419721076</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.275863811062002</v>
+        <v>3.280733195937365</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>1.823051344878582</v>
+        <v>1.88178594012663</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>6.630498234057054</v>
+        <v>7.46881800320053</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>4.747546493167026</v>
+        <v>4.812689254884448</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>2.747551842849805</v>
+        <v>2.687227510391117</v>
       </c>
     </row>
     <row r="18">
@@ -1078,28 +1078,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.046601026104701</v>
+        <v>4.052304000499627</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.517887695315554</v>
+        <v>4.64884491620016</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.793892267460397</v>
+        <v>3.921483684994705</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.503461567079555</v>
+        <v>4.535077260991478</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>5.167320626873993</v>
+        <v>4.999481685988195</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>59.14356745841123</v>
+        <v>62.68166562639213</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>19.09565160986649</v>
+        <v>18.91708646992725</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>7.335864083704617</v>
+        <v>7.332924638621527</v>
       </c>
     </row>
     <row r="19">
